--- a/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
+++ b/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="150">
+  <fonts count="188">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +45,215 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -881,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1031,6 +1240,44 @@
     <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1324,10 +1571,10 @@
         <v>1.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R9" t="n">
-        <v>896.0300589043655</v>
+        <v>886.1427829187943</v>
       </c>
       <c r="S9" t="n">
         <v>12040.0</v>
@@ -1341,10 +1588,10 @@
         <v>4.0</v>
       </c>
       <c r="R10" t="n">
-        <v>378.1926026099271</v>
+        <v>927.8902688068762</v>
       </c>
       <c r="S10" t="n">
-        <v>15050.0</v>
+        <v>12040.0</v>
       </c>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.25">
@@ -1352,13 +1599,13 @@
         <v>3.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R11" t="n">
-        <v>351.26151622731106</v>
+        <v>868.4471921260749</v>
       </c>
       <c r="S11" t="n">
-        <v>15050.0</v>
+        <v>12040.0</v>
       </c>
     </row>
     <row r="12" spans="16:19" x14ac:dyDescent="0.25">
@@ -1369,10 +1616,10 @@
         <v>4.0</v>
       </c>
       <c r="R12" t="n">
-        <v>369.3756005406868</v>
+        <v>831.7265608813003</v>
       </c>
       <c r="S12" t="n">
-        <v>15050.0</v>
+        <v>12040.0</v>
       </c>
     </row>
     <row r="13" spans="16:19" x14ac:dyDescent="0.25">
@@ -1383,7 +1630,7 @@
         <v>4.0</v>
       </c>
       <c r="R13" t="n">
-        <v>377.2916221235199</v>
+        <v>862.4721852186295</v>
       </c>
       <c r="S13" t="n">
         <v>15050.0</v>

--- a/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
+++ b/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="188">
+  <fonts count="240">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +45,292 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1090,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1278,6 +1564,58 @@
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1571,13 +1909,13 @@
         <v>1.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="R9" t="n">
-        <v>886.1427829187943</v>
+        <v>902.0083951763203</v>
       </c>
       <c r="S9" t="n">
-        <v>12040.0</v>
+        <v>30100.0</v>
       </c>
     </row>
     <row r="10" spans="16:19" x14ac:dyDescent="0.25">
@@ -1588,10 +1926,10 @@
         <v>4.0</v>
       </c>
       <c r="R10" t="n">
-        <v>927.8902688068762</v>
+        <v>670.80169171528</v>
       </c>
       <c r="S10" t="n">
-        <v>12040.0</v>
+        <v>15050.0</v>
       </c>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.25">
@@ -1599,13 +1937,13 @@
         <v>3.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="R11" t="n">
-        <v>868.4471921260749</v>
+        <v>737.9967568385171</v>
       </c>
       <c r="S11" t="n">
-        <v>12040.0</v>
+        <v>15050.0</v>
       </c>
     </row>
     <row r="12" spans="16:19" x14ac:dyDescent="0.25">
@@ -1616,10 +1954,10 @@
         <v>4.0</v>
       </c>
       <c r="R12" t="n">
-        <v>831.7265608813003</v>
+        <v>750.4652136450698</v>
       </c>
       <c r="S12" t="n">
-        <v>12040.0</v>
+        <v>15050.0</v>
       </c>
     </row>
     <row r="13" spans="16:19" x14ac:dyDescent="0.25">
@@ -1630,7 +1968,7 @@
         <v>4.0</v>
       </c>
       <c r="R13" t="n">
-        <v>862.4721852186295</v>
+        <v>709.1531088753337</v>
       </c>
       <c r="S13" t="n">
         <v>15050.0</v>

--- a/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
+++ b/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="240">
+  <fonts count="258">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +45,105 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1376,7 +1475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1616,6 +1715,24 @@
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1912,7 +2029,7 @@
         <v>11.0</v>
       </c>
       <c r="R9" t="n">
-        <v>902.0083951763203</v>
+        <v>953.7139684856921</v>
       </c>
       <c r="S9" t="n">
         <v>30100.0</v>
@@ -1923,13 +2040,13 @@
         <v>2.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="R10" t="n">
-        <v>670.80169171528</v>
+        <v>912.104554772366</v>
       </c>
       <c r="S10" t="n">
-        <v>15050.0</v>
+        <v>30100.0</v>
       </c>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.25">
@@ -1937,13 +2054,13 @@
         <v>3.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="R11" t="n">
-        <v>737.9967568385171</v>
+        <v>960.0790958552591</v>
       </c>
       <c r="S11" t="n">
-        <v>15050.0</v>
+        <v>30100.0</v>
       </c>
     </row>
     <row r="12" spans="16:19" x14ac:dyDescent="0.25">
@@ -1951,13 +2068,13 @@
         <v>4.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="R12" t="n">
-        <v>750.4652136450698</v>
+        <v>949.8015761924245</v>
       </c>
       <c r="S12" t="n">
-        <v>15050.0</v>
+        <v>30100.0</v>
       </c>
     </row>
     <row r="13" spans="16:19" x14ac:dyDescent="0.25">
@@ -1965,13 +2082,13 @@
         <v>5.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="R13" t="n">
-        <v>709.1531088753337</v>
+        <v>950.0702596554385</v>
       </c>
       <c r="S13" t="n">
-        <v>15050.0</v>
+        <v>30100.0</v>
       </c>
     </row>
     <row r="14" spans="16:19" x14ac:dyDescent="0.25">

--- a/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
+++ b/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="258">
+  <fonts count="302">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +45,248 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1475,7 +1717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1733,6 +1975,50 @@
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2026,13 +2312,13 @@
         <v>1.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="R9" t="n">
-        <v>953.7139684856921</v>
+        <v>1017.7774249154495</v>
       </c>
       <c r="S9" t="n">
-        <v>30100.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="10" spans="16:19" x14ac:dyDescent="0.25">
@@ -2043,10 +2329,10 @@
         <v>11.0</v>
       </c>
       <c r="R10" t="n">
-        <v>912.104554772366</v>
+        <v>988.0281458574128</v>
       </c>
       <c r="S10" t="n">
-        <v>30100.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.25">
@@ -2057,10 +2343,10 @@
         <v>11.0</v>
       </c>
       <c r="R11" t="n">
-        <v>960.0790958552591</v>
+        <v>949.7283737170155</v>
       </c>
       <c r="S11" t="n">
-        <v>30100.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="12" spans="16:19" x14ac:dyDescent="0.25">
@@ -2071,10 +2357,10 @@
         <v>11.0</v>
       </c>
       <c r="R12" t="n">
-        <v>949.8015761924245</v>
+        <v>904.0701811270259</v>
       </c>
       <c r="S12" t="n">
-        <v>30100.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="13" spans="16:19" x14ac:dyDescent="0.25">
@@ -2085,7 +2371,7 @@
         <v>11.0</v>
       </c>
       <c r="R13" t="n">
-        <v>950.0702596554385</v>
+        <v>906.8202027546994</v>
       </c>
       <c r="S13" t="n">
         <v>30100.0</v>

--- a/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
+++ b/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="302">
+  <fonts count="846">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +45,2998 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1717,7 +4709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="845">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2019,6 +5011,550 @@
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="705" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="735" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="737" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="738" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="750" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="785" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="786" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="797" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="801" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="803" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="807" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="809" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="812" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="813" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="815" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="818" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="821" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="823" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="824" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="830" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="833" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="840" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="845" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2312,13 +5848,13 @@
         <v>1.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="R9" t="n">
-        <v>1017.7774249154495</v>
+        <v>843.2497609296925</v>
       </c>
       <c r="S9" t="n">
-        <v>5100.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="10" spans="16:19" x14ac:dyDescent="0.25">
@@ -2326,13 +5862,13 @@
         <v>2.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="R10" t="n">
-        <v>988.0281458574128</v>
+        <v>839.6840369226788</v>
       </c>
       <c r="S10" t="n">
-        <v>5100.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.25">
@@ -2340,13 +5876,13 @@
         <v>3.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="R11" t="n">
-        <v>949.7283737170155</v>
+        <v>801.5426855032889</v>
       </c>
       <c r="S11" t="n">
-        <v>5100.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="12" spans="16:19" x14ac:dyDescent="0.25">
@@ -2354,13 +5890,13 @@
         <v>4.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="R12" t="n">
-        <v>904.0701811270259</v>
+        <v>874.9293244181647</v>
       </c>
       <c r="S12" t="n">
-        <v>5100.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="13" spans="16:19" x14ac:dyDescent="0.25">
@@ -2368,13 +5904,13 @@
         <v>5.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="R13" t="n">
-        <v>906.8202027546994</v>
+        <v>813.5856032245516</v>
       </c>
       <c r="S13" t="n">
-        <v>30100.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="14" spans="16:19" x14ac:dyDescent="0.25">
@@ -2382,13 +5918,13 @@
         <v>6.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R14" t="n">
-        <v>374.3143737936792</v>
+        <v>847.2951841698668</v>
       </c>
       <c r="S14" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="15" spans="16:19" x14ac:dyDescent="0.25">
@@ -2396,13 +5932,13 @@
         <v>7.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R15" t="n">
-        <v>378.1926026099271</v>
+        <v>899.9462346182759</v>
       </c>
       <c r="S15" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="16" spans="16:19" x14ac:dyDescent="0.25">
@@ -2410,13 +5946,13 @@
         <v>8.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R16" t="n">
-        <v>378.1926026099271</v>
+        <v>829.4620057673121</v>
       </c>
       <c r="S16" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="17" spans="16:19" x14ac:dyDescent="0.25">
@@ -2424,13 +5960,13 @@
         <v>9.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R17" t="n">
-        <v>414.2881192221863</v>
+        <v>807.5417826828872</v>
       </c>
       <c r="S17" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="18" spans="16:19" x14ac:dyDescent="0.25">
@@ -2438,13 +5974,13 @@
         <v>10.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R18" t="n">
-        <v>370.889363733694</v>
+        <v>850.7187416888405</v>
       </c>
       <c r="S18" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="19" spans="16:19" x14ac:dyDescent="0.25">
@@ -2452,13 +5988,13 @@
         <v>11.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R19" t="n">
-        <v>378.1926026099271</v>
+        <v>805.1088257117846</v>
       </c>
       <c r="S19" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="20" spans="16:19" x14ac:dyDescent="0.25">
@@ -2466,13 +6002,13 @@
         <v>12.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R20" t="n">
-        <v>389.7200107765672</v>
+        <v>804.8295944523545</v>
       </c>
       <c r="S20" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="21" spans="16:19" x14ac:dyDescent="0.25">
@@ -2480,13 +6016,13 @@
         <v>13.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R21" t="n">
-        <v>374.28381245823</v>
+        <v>763.5440556134089</v>
       </c>
       <c r="S21" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="22" spans="16:19" x14ac:dyDescent="0.25">
@@ -2494,13 +6030,13 @@
         <v>14.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R22" t="n">
-        <v>377.2916221235199</v>
+        <v>786.4382895154916</v>
       </c>
       <c r="S22" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="23" spans="16:19" x14ac:dyDescent="0.25">
@@ -2508,13 +6044,13 @@
         <v>15.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R23" t="n">
-        <v>378.1926026099271</v>
+        <v>833.4995314790498</v>
       </c>
       <c r="S23" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="24" spans="16:19" x14ac:dyDescent="0.25">
@@ -2522,13 +6058,13 @@
         <v>16.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R24" t="n">
-        <v>377.34285917938956</v>
+        <v>842.4754381461911</v>
       </c>
       <c r="S24" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="25" spans="16:19" x14ac:dyDescent="0.25">
@@ -2536,13 +6072,13 @@
         <v>17.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R25" t="n">
-        <v>378.72265017163375</v>
+        <v>822.029909234154</v>
       </c>
       <c r="S25" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="26" spans="16:19" x14ac:dyDescent="0.25">
@@ -2550,13 +6086,13 @@
         <v>18.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R26" t="n">
-        <v>378.1926026099271</v>
+        <v>854.3674871175971</v>
       </c>
       <c r="S26" t="n">
-        <v>12040.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="27" spans="16:19" x14ac:dyDescent="0.25">
@@ -2564,13 +6100,13 @@
         <v>19.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R27" t="n">
-        <v>370.91055592443854</v>
+        <v>876.7559492846843</v>
       </c>
       <c r="S27" t="n">
-        <v>15050.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="28" spans="16:19" x14ac:dyDescent="0.25">
@@ -2578,13 +6114,13 @@
         <v>20.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R28" t="n">
-        <v>378.1926026099271</v>
+        <v>859.8326958760906</v>
       </c>
       <c r="S28" t="n">
-        <v>12040.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="29" spans="16:19" x14ac:dyDescent="0.25">
@@ -2592,13 +6128,13 @@
         <v>21.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R29" t="n">
-        <v>368.7761133791164</v>
+        <v>945.1272813152171</v>
       </c>
       <c r="S29" t="n">
-        <v>15050.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="30" spans="16:19" x14ac:dyDescent="0.25">
@@ -2606,13 +6142,13 @@
         <v>22.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R30" t="n">
-        <v>377.2916221235199</v>
+        <v>878.4165205568812</v>
       </c>
       <c r="S30" t="n">
-        <v>12040.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="31" spans="16:19" x14ac:dyDescent="0.25">
@@ -2620,13 +6156,13 @@
         <v>23.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R31" t="n">
-        <v>403.35242497809327</v>
+        <v>942.8139086276489</v>
       </c>
       <c r="S31" t="n">
-        <v>15050.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="32" spans="16:19" x14ac:dyDescent="0.25">
@@ -2634,13 +6170,13 @@
         <v>24.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R32" t="n">
-        <v>377.1588761730983</v>
+        <v>949.4767008862965</v>
       </c>
       <c r="S32" t="n">
-        <v>15050.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="33" spans="16:19" x14ac:dyDescent="0.25">
@@ -2648,13 +6184,13 @@
         <v>25.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R33" t="n">
-        <v>370.889363733694</v>
+        <v>908.4117285273139</v>
       </c>
       <c r="S33" t="n">
-        <v>15050.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="34" spans="16:19" x14ac:dyDescent="0.25">
@@ -2662,13 +6198,13 @@
         <v>26.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R34" t="n">
-        <v>377.2916221235199</v>
+        <v>959.4959075337298</v>
       </c>
       <c r="S34" t="n">
-        <v>15050.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="35" spans="16:19" x14ac:dyDescent="0.25">
@@ -2676,13 +6212,13 @@
         <v>27.0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R35" t="n">
-        <v>374.28381245823</v>
+        <v>938.2180739894189</v>
       </c>
       <c r="S35" t="n">
-        <v>15050.0</v>
+        <v>2040.0</v>
       </c>
     </row>
     <row r="36" spans="16:19" x14ac:dyDescent="0.25">
@@ -2690,13 +6226,13 @@
         <v>28.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R36" t="n">
-        <v>398.5034965307189</v>
+        <v>875.600624714315</v>
       </c>
       <c r="S36" t="n">
-        <v>15050.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="37" spans="16:19" x14ac:dyDescent="0.25">
@@ -2704,13 +6240,13 @@
         <v>29.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="R37" t="n">
-        <v>378.6245559257708</v>
+        <v>864.2643311779071</v>
       </c>
       <c r="S37" t="n">
-        <v>15050.0</v>
+        <v>2040.0</v>
       </c>
     </row>
     <row r="38" spans="16:19" x14ac:dyDescent="0.25">
@@ -2718,13 +6254,13 @@
         <v>30.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R38" t="n">
-        <v>386.7939853334797</v>
+        <v>824.3862087328454</v>
       </c>
       <c r="S38" t="n">
-        <v>15050.0</v>
+        <v>2550.0</v>
       </c>
     </row>
   </sheetData>

--- a/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
+++ b/output_count_solutions/Rulari DVRPTW_ACS MinSum_instante statice_30 rulari.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="846">
+  <fonts count="850">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +45,28 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4709,7 +4731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="845">
+  <cellXfs count="849">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5555,6 +5577,10 @@
     <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="845" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="849" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5851,10 +5877,10 @@
         <v>6.0</v>
       </c>
       <c r="R9" t="n">
-        <v>843.2497609296925</v>
+        <v>802.3481939224594</v>
       </c>
       <c r="S9" t="n">
-        <v>6120.0</v>
+        <v>15300.0</v>
       </c>
     </row>
     <row r="10" spans="16:19" x14ac:dyDescent="0.25">
@@ -5865,10 +5891,10 @@
         <v>6.0</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6840369226788</v>
+        <v>968.3486407518596</v>
       </c>
       <c r="S10" t="n">
-        <v>6120.0</v>
+        <v>14790.0</v>
       </c>
     </row>
     <row r="11" spans="16:19" x14ac:dyDescent="0.25">
